--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cck-Cckar.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cck-Cckar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cck</t>
+  </si>
+  <si>
+    <t>Cckar</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cck</t>
-  </si>
-  <si>
-    <t>Cckar</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6552053333333333</v>
+        <v>0.4587156666666667</v>
       </c>
       <c r="H2">
-        <v>1.965616</v>
+        <v>1.376147</v>
       </c>
       <c r="I2">
-        <v>0.1282135351127643</v>
+        <v>0.1951316036962996</v>
       </c>
       <c r="J2">
-        <v>0.162056057121492</v>
+        <v>0.2163358909909342</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,22 +564,22 @@
         <v>2.679378</v>
       </c>
       <c r="O2">
-        <v>0.748628476447235</v>
+        <v>0.8849090297196995</v>
       </c>
       <c r="P2">
-        <v>0.748628476447235</v>
+        <v>0.8849090297196994</v>
       </c>
       <c r="Q2">
-        <v>0.5851809185386666</v>
+        <v>0.4096908885073333</v>
       </c>
       <c r="R2">
-        <v>5.266628266848</v>
+        <v>3.687217996566</v>
       </c>
       <c r="S2">
-        <v>0.09598430345138283</v>
+        <v>0.1726737180945414</v>
       </c>
       <c r="T2">
-        <v>0.1213197791419087</v>
+        <v>0.1914375833903343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,75 +587,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6552053333333333</v>
+        <v>0.4587156666666667</v>
       </c>
       <c r="H3">
-        <v>1.965616</v>
+        <v>1.376147</v>
       </c>
       <c r="I3">
-        <v>0.1282135351127643</v>
+        <v>0.1951316036962996</v>
       </c>
       <c r="J3">
-        <v>0.162056057121492</v>
+        <v>0.2163358909909342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.030946</v>
+        <v>0.1161596666666667</v>
       </c>
       <c r="N3">
-        <v>0.092838</v>
+        <v>0.348479</v>
       </c>
       <c r="O3">
-        <v>0.02593929281214088</v>
+        <v>0.1150909702803006</v>
       </c>
       <c r="P3">
-        <v>0.02593929281214088</v>
+        <v>0.1150909702803005</v>
       </c>
       <c r="Q3">
-        <v>0.02027598424533333</v>
+        <v>0.05328425893477778</v>
       </c>
       <c r="R3">
-        <v>0.182483858208</v>
+        <v>0.479558330413</v>
       </c>
       <c r="S3">
-        <v>0.0033257684297697</v>
+        <v>0.0224578856017582</v>
       </c>
       <c r="T3">
-        <v>0.00420361951765541</v>
+        <v>0.02489830760059995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6552053333333333</v>
+        <v>1.054585</v>
       </c>
       <c r="H4">
-        <v>1.965616</v>
+        <v>3.163755</v>
       </c>
       <c r="I4">
-        <v>0.1282135351127643</v>
+        <v>0.4486065709929146</v>
       </c>
       <c r="J4">
-        <v>0.162056057121492</v>
+        <v>0.4973551203483517</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2689443333333333</v>
+        <v>0.893126</v>
       </c>
       <c r="N4">
-        <v>0.806833</v>
+        <v>2.679378</v>
       </c>
       <c r="O4">
-        <v>0.2254322307406241</v>
+        <v>0.8849090297196995</v>
       </c>
       <c r="P4">
-        <v>0.2254322307406241</v>
+        <v>0.8849090297196994</v>
       </c>
       <c r="Q4">
-        <v>0.1762137615697778</v>
+        <v>0.94187728271</v>
       </c>
       <c r="R4">
-        <v>1.585923854128</v>
+        <v>8.47689554439</v>
       </c>
       <c r="S4">
-        <v>0.0289034632316118</v>
+        <v>0.3969760054632215</v>
       </c>
       <c r="T4">
-        <v>0.03653265846192795</v>
+        <v>0.4401140369735842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,134 +732,134 @@
         <v>3.163755</v>
       </c>
       <c r="I5">
-        <v>0.2063659497992913</v>
+        <v>0.4486065709929146</v>
       </c>
       <c r="J5">
-        <v>0.2608371426557404</v>
+        <v>0.4973551203483517</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.893126</v>
+        <v>0.1161596666666667</v>
       </c>
       <c r="N5">
-        <v>2.679378</v>
+        <v>0.348479</v>
       </c>
       <c r="O5">
-        <v>0.748628476447235</v>
+        <v>0.1150909702803006</v>
       </c>
       <c r="P5">
-        <v>0.748628476447235</v>
+        <v>0.1150909702803005</v>
       </c>
       <c r="Q5">
-        <v>0.9418772827099998</v>
+        <v>0.1225002420716667</v>
       </c>
       <c r="R5">
-        <v>8.476895544389999</v>
+        <v>1.102502178645</v>
       </c>
       <c r="S5">
-        <v>0.15449142658883</v>
+        <v>0.05163056552969308</v>
       </c>
       <c r="T5">
-        <v>0.195270112707217</v>
+        <v>0.05724108337476744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1462553333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.438766</v>
+      </c>
+      <c r="I6">
+        <v>0.06221509273893747</v>
+      </c>
+      <c r="J6">
+        <v>0.0689757951341886</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1.054585</v>
-      </c>
-      <c r="H6">
-        <v>3.163755</v>
-      </c>
-      <c r="I6">
-        <v>0.2063659497992913</v>
-      </c>
-      <c r="J6">
-        <v>0.2608371426557404</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.030946</v>
+        <v>0.893126</v>
       </c>
       <c r="N6">
-        <v>0.092838</v>
+        <v>2.679378</v>
       </c>
       <c r="O6">
-        <v>0.02593929281214088</v>
+        <v>0.8849090297196995</v>
       </c>
       <c r="P6">
-        <v>0.02593929281214088</v>
+        <v>0.8849090297196994</v>
       </c>
       <c r="Q6">
-        <v>0.03263518741</v>
+        <v>0.1306244408386666</v>
       </c>
       <c r="R6">
-        <v>0.29371668669</v>
+        <v>1.175619967548</v>
       </c>
       <c r="S6">
-        <v>0.005352986798299381</v>
+        <v>0.05505469734953428</v>
       </c>
       <c r="T6">
-        <v>0.006765931019629414</v>
+        <v>0.0610373039463396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.054585</v>
+        <v>0.1462553333333333</v>
       </c>
       <c r="H7">
-        <v>3.163755</v>
+        <v>0.438766</v>
       </c>
       <c r="I7">
-        <v>0.2063659497992913</v>
+        <v>0.06221509273893747</v>
       </c>
       <c r="J7">
-        <v>0.2608371426557404</v>
+        <v>0.0689757951341886</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,60 +868,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2689443333333333</v>
+        <v>0.1161596666666667</v>
       </c>
       <c r="N7">
-        <v>0.806833</v>
+        <v>0.348479</v>
       </c>
       <c r="O7">
-        <v>0.2254322307406241</v>
+        <v>0.1150909702803006</v>
       </c>
       <c r="P7">
-        <v>0.2254322307406241</v>
+        <v>0.1150909702803005</v>
       </c>
       <c r="Q7">
-        <v>0.2836246597683333</v>
+        <v>0.01698897076822222</v>
       </c>
       <c r="R7">
-        <v>2.552621937915</v>
+        <v>0.152900736914</v>
       </c>
       <c r="S7">
-        <v>0.04652153641216188</v>
+        <v>0.007160395389403195</v>
       </c>
       <c r="T7">
-        <v>0.05880109892889397</v>
+        <v>0.007938491187848999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G8">
-        <v>0.09810399999999998</v>
+        <v>0.6912455</v>
       </c>
       <c r="H8">
-        <v>0.294312</v>
+        <v>1.382491</v>
       </c>
       <c r="I8">
-        <v>0.01919743324540902</v>
+        <v>0.2940467325718483</v>
       </c>
       <c r="J8">
-        <v>0.02426467951193954</v>
+        <v>0.2173331935265256</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,518 +936,84 @@
         <v>2.679378</v>
       </c>
       <c r="O8">
-        <v>0.748628476447235</v>
+        <v>0.8849090297196995</v>
       </c>
       <c r="P8">
-        <v>0.748628476447235</v>
+        <v>0.8849090297196994</v>
       </c>
       <c r="Q8">
-        <v>0.08761923310399998</v>
+        <v>0.617369328433</v>
       </c>
       <c r="R8">
-        <v>0.7885730979359998</v>
+        <v>3.704215970597999</v>
       </c>
       <c r="S8">
-        <v>0.01437174520220805</v>
+        <v>0.2602046088124023</v>
       </c>
       <c r="T8">
-        <v>0.01816523005450374</v>
+        <v>0.1923201054094414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G9">
-        <v>0.09810399999999998</v>
+        <v>0.6912455</v>
       </c>
       <c r="H9">
-        <v>0.294312</v>
+        <v>1.382491</v>
       </c>
       <c r="I9">
-        <v>0.01919743324540902</v>
+        <v>0.2940467325718483</v>
       </c>
       <c r="J9">
-        <v>0.02426467951193954</v>
+        <v>0.2173331935265256</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.030946</v>
+        <v>0.1161596666666667</v>
       </c>
       <c r="N9">
-        <v>0.092838</v>
+        <v>0.348479</v>
       </c>
       <c r="O9">
-        <v>0.02593929281214088</v>
+        <v>0.1150909702803006</v>
       </c>
       <c r="P9">
-        <v>0.02593929281214088</v>
+        <v>0.1150909702803005</v>
       </c>
       <c r="Q9">
-        <v>0.003035926384</v>
+        <v>0.08029484686483332</v>
       </c>
       <c r="R9">
-        <v>0.027323337456</v>
+        <v>0.481769081189</v>
       </c>
       <c r="S9">
-        <v>0.0004979678421941925</v>
+        <v>0.03384212375944608</v>
       </c>
       <c r="T9">
-        <v>0.0006294086268529554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.09810399999999998</v>
-      </c>
-      <c r="H10">
-        <v>0.294312</v>
-      </c>
-      <c r="I10">
-        <v>0.01919743324540902</v>
-      </c>
-      <c r="J10">
-        <v>0.02426467951193954</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.2689443333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.806833</v>
-      </c>
-      <c r="O10">
-        <v>0.2254322307406241</v>
-      </c>
-      <c r="P10">
-        <v>0.2254322307406241</v>
-      </c>
-      <c r="Q10">
-        <v>0.02638451487733333</v>
-      </c>
-      <c r="R10">
-        <v>0.237460633896</v>
-      </c>
-      <c r="S10">
-        <v>0.004327720201006774</v>
-      </c>
-      <c r="T10">
-        <v>0.00547004083058285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.2015645</v>
-      </c>
-      <c r="H11">
-        <v>6.403129</v>
-      </c>
-      <c r="I11">
-        <v>0.6264965829081517</v>
-      </c>
-      <c r="J11">
-        <v>0.5279087263129125</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.893126</v>
-      </c>
-      <c r="N11">
-        <v>2.679378</v>
-      </c>
-      <c r="O11">
-        <v>0.748628476447235</v>
-      </c>
-      <c r="P11">
-        <v>0.748628476447235</v>
-      </c>
-      <c r="Q11">
-        <v>2.859400495627</v>
-      </c>
-      <c r="R11">
-        <v>17.156402973762</v>
-      </c>
-      <c r="S11">
-        <v>0.4690131823619284</v>
-      </c>
-      <c r="T11">
-        <v>0.3952075054828361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3.2015645</v>
-      </c>
-      <c r="H12">
-        <v>6.403129</v>
-      </c>
-      <c r="I12">
-        <v>0.6264965829081517</v>
-      </c>
-      <c r="J12">
-        <v>0.5279087263129125</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.030946</v>
-      </c>
-      <c r="N12">
-        <v>0.092838</v>
-      </c>
-      <c r="O12">
-        <v>0.02593929281214088</v>
-      </c>
-      <c r="P12">
-        <v>0.02593929281214088</v>
-      </c>
-      <c r="Q12">
-        <v>0.099075615017</v>
-      </c>
-      <c r="R12">
-        <v>0.594453690102</v>
-      </c>
-      <c r="S12">
-        <v>0.01625087830986024</v>
-      </c>
-      <c r="T12">
-        <v>0.01369357902991498</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.2015645</v>
-      </c>
-      <c r="H13">
-        <v>6.403129</v>
-      </c>
-      <c r="I13">
-        <v>0.6264965829081517</v>
-      </c>
-      <c r="J13">
-        <v>0.5279087263129125</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2689443333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.806833</v>
-      </c>
-      <c r="O13">
-        <v>0.2254322307406241</v>
-      </c>
-      <c r="P13">
-        <v>0.2254322307406241</v>
-      </c>
-      <c r="Q13">
-        <v>0.8610426300761667</v>
-      </c>
-      <c r="R13">
-        <v>5.166255780457</v>
-      </c>
-      <c r="S13">
-        <v>0.141232522236363</v>
-      </c>
-      <c r="T13">
-        <v>0.1190076418001615</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1008076666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.302423</v>
-      </c>
-      <c r="I14">
-        <v>0.01972649893438369</v>
-      </c>
-      <c r="J14">
-        <v>0.02493339439791545</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.893126</v>
-      </c>
-      <c r="N14">
-        <v>2.679378</v>
-      </c>
-      <c r="O14">
-        <v>0.748628476447235</v>
-      </c>
-      <c r="P14">
-        <v>0.748628476447235</v>
-      </c>
-      <c r="Q14">
-        <v>0.09003394809933334</v>
-      </c>
-      <c r="R14">
-        <v>0.810305532894</v>
-      </c>
-      <c r="S14">
-        <v>0.01476781884288567</v>
-      </c>
-      <c r="T14">
-        <v>0.01866584906076947</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1008076666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.302423</v>
-      </c>
-      <c r="I15">
-        <v>0.01972649893438369</v>
-      </c>
-      <c r="J15">
-        <v>0.02493339439791545</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.030946</v>
-      </c>
-      <c r="N15">
-        <v>0.092838</v>
-      </c>
-      <c r="O15">
-        <v>0.02593929281214088</v>
-      </c>
-      <c r="P15">
-        <v>0.02593929281214088</v>
-      </c>
-      <c r="Q15">
-        <v>0.003119594052666667</v>
-      </c>
-      <c r="R15">
-        <v>0.028076346474</v>
-      </c>
-      <c r="S15">
-        <v>0.0005116914320173636</v>
-      </c>
-      <c r="T15">
-        <v>0.000646754618088122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1008076666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.302423</v>
-      </c>
-      <c r="I16">
-        <v>0.01972649893438369</v>
-      </c>
-      <c r="J16">
-        <v>0.02493339439791545</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2689443333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.806833</v>
-      </c>
-      <c r="O16">
-        <v>0.2254322307406241</v>
-      </c>
-      <c r="P16">
-        <v>0.2254322307406241</v>
-      </c>
-      <c r="Q16">
-        <v>0.02711165070655556</v>
-      </c>
-      <c r="R16">
-        <v>0.244004856359</v>
-      </c>
-      <c r="S16">
-        <v>0.00444698865948066</v>
-      </c>
-      <c r="T16">
-        <v>0.005620790719057862</v>
+        <v>0.02501308811708416</v>
       </c>
     </row>
   </sheetData>
